--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,148 +52,151 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>husband</t>
   </si>
   <si>
     <t>sturdy</t>
   </si>
   <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
     <t>wife</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>gift</t>
   </si>
   <si>
     <t>ever</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>recommend</t>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>clean</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>time</t>
   </si>
   <si>
     <t>use</t>
@@ -557,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q52"/>
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.4341085271317829</v>
+        <v>0.3565891472868217</v>
       </c>
       <c r="C3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K3">
-        <v>0.978494623655914</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.3636363636363636</v>
+        <v>0.3232323232323233</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8840579710144928</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +729,13 @@
         <v>13</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -744,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -752,13 +755,13 @@
         <v>14</v>
       </c>
       <c r="K6">
-        <v>0.8668730650154799</v>
+        <v>0.871517027863777</v>
       </c>
       <c r="L6">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="M6">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -778,13 +781,13 @@
         <v>15</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -796,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -804,13 +807,13 @@
         <v>16</v>
       </c>
       <c r="K8">
-        <v>0.7316017316017316</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="M8">
-        <v>169</v>
+        <v>56</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -822,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -830,13 +833,13 @@
         <v>17</v>
       </c>
       <c r="K9">
-        <v>0.7272727272727273</v>
+        <v>0.7229437229437229</v>
       </c>
       <c r="L9">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="M9">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -848,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -882,13 +885,13 @@
         <v>19</v>
       </c>
       <c r="K11">
-        <v>0.6983050847457627</v>
+        <v>0.6813559322033899</v>
       </c>
       <c r="L11">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M11">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -900,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -908,13 +911,13 @@
         <v>20</v>
       </c>
       <c r="K12">
-        <v>0.65625</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -926,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -934,13 +937,13 @@
         <v>21</v>
       </c>
       <c r="K13">
-        <v>0.64446227929374</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>803</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>803</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -952,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>443</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -960,13 +963,13 @@
         <v>22</v>
       </c>
       <c r="K14">
-        <v>0.6438356164383562</v>
+        <v>0.6500802568218299</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>810</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>810</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>26</v>
+        <v>436</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -986,13 +989,13 @@
         <v>23</v>
       </c>
       <c r="K15">
-        <v>0.6197183098591549</v>
+        <v>0.6</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1004,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1012,13 +1015,13 @@
         <v>24</v>
       </c>
       <c r="K16">
-        <v>0.6142857142857143</v>
+        <v>0.5915492957746479</v>
       </c>
       <c r="L16">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1030,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1038,13 +1041,13 @@
         <v>25</v>
       </c>
       <c r="K17">
-        <v>0.6057142857142858</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L17">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="M17">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1056,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>69</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1064,25 +1067,25 @@
         <v>26</v>
       </c>
       <c r="K18">
-        <v>0.6041666666666666</v>
+        <v>0.5857142857142857</v>
       </c>
       <c r="L18">
+        <v>41</v>
+      </c>
+      <c r="M18">
+        <v>41</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>29</v>
-      </c>
-      <c r="M18">
-        <v>29</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>19</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1090,13 +1093,13 @@
         <v>27</v>
       </c>
       <c r="K19">
-        <v>0.5882352941176471</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1108,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1116,13 +1119,13 @@
         <v>28</v>
       </c>
       <c r="K20">
-        <v>0.5480769230769231</v>
+        <v>0.5673076923076923</v>
       </c>
       <c r="L20">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M20">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1134,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1142,13 +1145,13 @@
         <v>29</v>
       </c>
       <c r="K21">
-        <v>0.5269461077844312</v>
+        <v>0.5657894736842105</v>
       </c>
       <c r="L21">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="M21">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1160,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>79</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1168,13 +1171,13 @@
         <v>30</v>
       </c>
       <c r="K22">
-        <v>0.5263157894736842</v>
+        <v>0.5625</v>
       </c>
       <c r="L22">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1186,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1194,13 +1197,13 @@
         <v>31</v>
       </c>
       <c r="K23">
-        <v>0.5180722891566265</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1212,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1220,13 +1223,13 @@
         <v>32</v>
       </c>
       <c r="K24">
-        <v>0.5</v>
+        <v>0.5389221556886228</v>
       </c>
       <c r="L24">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="M24">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1238,7 +1241,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1246,13 +1249,13 @@
         <v>33</v>
       </c>
       <c r="K25">
-        <v>0.4923076923076923</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1264,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1272,13 +1275,13 @@
         <v>34</v>
       </c>
       <c r="K26">
-        <v>0.4786324786324787</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1290,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1298,13 +1301,13 @@
         <v>35</v>
       </c>
       <c r="K27">
-        <v>0.4360902255639098</v>
+        <v>0.48</v>
       </c>
       <c r="L27">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="M27">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1316,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1324,13 +1327,13 @@
         <v>36</v>
       </c>
       <c r="K28">
-        <v>0.42</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L28">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1350,13 +1353,13 @@
         <v>37</v>
       </c>
       <c r="K29">
-        <v>0.4096385542168675</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="L29">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1368,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>98</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1376,13 +1379,13 @@
         <v>38</v>
       </c>
       <c r="K30">
-        <v>0.382716049382716</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1394,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1402,13 +1405,13 @@
         <v>39</v>
       </c>
       <c r="K31">
-        <v>0.3651960784313725</v>
+        <v>0.4360902255639098</v>
       </c>
       <c r="L31">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="M31">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1420,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>259</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1428,13 +1431,13 @@
         <v>40</v>
       </c>
       <c r="K32">
-        <v>0.3424124513618677</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="L32">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="M32">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>169</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1454,13 +1457,13 @@
         <v>41</v>
       </c>
       <c r="K33">
-        <v>0.3205479452054795</v>
+        <v>0.3463035019455253</v>
       </c>
       <c r="L33">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="M33">
-        <v>234</v>
+        <v>89</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1472,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>496</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1480,13 +1483,13 @@
         <v>42</v>
       </c>
       <c r="K34">
-        <v>0.3007518796992481</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L34">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M34">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>93</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1506,13 +1509,13 @@
         <v>43</v>
       </c>
       <c r="K35">
-        <v>0.2733812949640288</v>
+        <v>0.2958904109589041</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>216</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1524,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>101</v>
+        <v>514</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1532,13 +1535,13 @@
         <v>44</v>
       </c>
       <c r="K36">
-        <v>0.2727272727272727</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="M36">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1550,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>152</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1558,13 +1561,13 @@
         <v>45</v>
       </c>
       <c r="K37">
-        <v>0.2432723358449946</v>
+        <v>0.2792792792792793</v>
       </c>
       <c r="L37">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="M37">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1576,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>703</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1584,13 +1587,13 @@
         <v>46</v>
       </c>
       <c r="K38">
-        <v>0.2052980132450331</v>
+        <v>0.2517985611510791</v>
       </c>
       <c r="L38">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M38">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1602,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1610,13 +1613,13 @@
         <v>47</v>
       </c>
       <c r="K39">
-        <v>0.1974921630094044</v>
+        <v>0.2314316469321852</v>
       </c>
       <c r="L39">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="M39">
-        <v>63</v>
+        <v>215</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1628,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>256</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1636,13 +1639,13 @@
         <v>48</v>
       </c>
       <c r="K40">
-        <v>0.1973509933774834</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L40">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>149</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1654,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>606</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1662,13 +1665,13 @@
         <v>49</v>
       </c>
       <c r="K41">
-        <v>0.1739130434782609</v>
+        <v>0.1960264900662252</v>
       </c>
       <c r="L41">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="M41">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1680,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>646</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1688,13 +1691,13 @@
         <v>50</v>
       </c>
       <c r="K42">
-        <v>0.1545454545454545</v>
+        <v>0.180306905370844</v>
       </c>
       <c r="L42">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="M42">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1706,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>372</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1714,13 +1717,13 @@
         <v>51</v>
       </c>
       <c r="K43">
-        <v>0.1455525606469003</v>
+        <v>0.1786833855799373</v>
       </c>
       <c r="L43">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M43">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1732,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>317</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1740,25 +1743,25 @@
         <v>52</v>
       </c>
       <c r="K44">
-        <v>0.134020618556701</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L44">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="M44">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>252</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1766,25 +1769,25 @@
         <v>53</v>
       </c>
       <c r="K45">
-        <v>0.1293859649122807</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="L45">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M45">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>397</v>
+        <v>234</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1792,13 +1795,13 @@
         <v>54</v>
       </c>
       <c r="K46">
-        <v>0.1180811808118081</v>
+        <v>0.1264916467780429</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1810,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>239</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1818,13 +1821,13 @@
         <v>55</v>
       </c>
       <c r="K47">
-        <v>0.1094890510948905</v>
+        <v>0.1204545454545455</v>
       </c>
       <c r="L47">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M47">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1836,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>366</v>
+        <v>387</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1844,25 +1847,25 @@
         <v>56</v>
       </c>
       <c r="K48">
-        <v>0.1028708133971292</v>
+        <v>0.1192214111922141</v>
       </c>
       <c r="L48">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M48">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1870,13 +1873,13 @@
         <v>57</v>
       </c>
       <c r="K49">
-        <v>0.07649253731343283</v>
+        <v>0.1140350877192982</v>
       </c>
       <c r="L49">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M49">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -1888,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>990</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1896,25 +1899,25 @@
         <v>58</v>
       </c>
       <c r="K50">
-        <v>0.07173601147776183</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L50">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M50">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="N50">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>647</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -1922,25 +1925,25 @@
         <v>59</v>
       </c>
       <c r="K51">
-        <v>0.05719557195571956</v>
+        <v>0.06816059757236227</v>
       </c>
       <c r="L51">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M51">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>511</v>
+        <v>998</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -1948,24 +1951,50 @@
         <v>60</v>
       </c>
       <c r="K52">
-        <v>0.0398959236773634</v>
+        <v>0.06465517241379311</v>
       </c>
       <c r="L52">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M52">
+        <v>47</v>
+      </c>
+      <c r="N52">
+        <v>0.96</v>
+      </c>
+      <c r="O52">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K53">
+        <v>0.04155844155844156</v>
+      </c>
+      <c r="L53">
+        <v>48</v>
+      </c>
+      <c r="M53">
         <v>50</v>
       </c>
-      <c r="N52">
-        <v>0.92</v>
-      </c>
-      <c r="O52">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q52">
+      <c r="N53">
+        <v>0.96</v>
+      </c>
+      <c r="O53">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
         <v>1107</v>
       </c>
     </row>
